--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>姓名</t>
   </si>
@@ -28,13 +28,91 @@
     <t>沈俊贤</t>
   </si>
   <si>
-    <t>2019-08-24 16:09:08</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>2019214xxx</t>
+    <t>2019-08-27 11:24:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张超凡 </t>
+  </si>
+  <si>
+    <t>2019-08-27 11:24:58</t>
+  </si>
+  <si>
+    <t>刘俊材</t>
+  </si>
+  <si>
+    <t>孔啸</t>
+  </si>
+  <si>
+    <t>樊琳娜</t>
+  </si>
+  <si>
+    <t>张琦</t>
+  </si>
+  <si>
+    <t>陶德昊</t>
+  </si>
+  <si>
+    <t>刘明星</t>
+  </si>
+  <si>
+    <t>郭阳飞</t>
+  </si>
+  <si>
+    <t>熊斌</t>
+  </si>
+  <si>
+    <t>李佳蔚</t>
+  </si>
+  <si>
+    <t>刘李鑫</t>
+  </si>
+  <si>
+    <t>张子晗</t>
+  </si>
+  <si>
+    <t>段晨鑫</t>
+  </si>
+  <si>
+    <t>高辉</t>
+  </si>
+  <si>
+    <t>2019-08-27 11:24:47</t>
+  </si>
+  <si>
+    <t>韩东岐</t>
+  </si>
+  <si>
+    <t>汪嘉来</t>
+  </si>
+  <si>
+    <t>程鑫</t>
+  </si>
+  <si>
+    <t>王楚涵</t>
+  </si>
+  <si>
+    <t>徐绘凯</t>
+  </si>
+  <si>
+    <t>张杰</t>
+  </si>
+  <si>
+    <t>吴灿华</t>
+  </si>
+  <si>
+    <t>秦世松</t>
+  </si>
+  <si>
+    <t>刘畅</t>
+  </si>
+  <si>
+    <t>李嘉睿</t>
+  </si>
+  <si>
+    <t>王士诚</t>
+  </si>
+  <si>
+    <t>范英晨</t>
   </si>
 </sst>
 </file>
@@ -370,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,8 +482,214 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="n">
+        <v>2019214570</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2019312690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2019214562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2019312681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2019214557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2019214573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2019214574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2019214572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2019214561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2019312684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2019214565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2019214566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2019214551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2019214552</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2019312689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2019214567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2019214559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2019214556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2019214576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2019214546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2019214547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2019214569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2019214558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2019214560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2019214554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2019214571</v>
       </c>
     </row>
   </sheetData>
